--- a/biology/Zoologie/Harmonine/Harmonine.xlsx
+++ b/biology/Zoologie/Harmonine/Harmonine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’harmonine est une substance chimique défensive produite par la Coccinelle asiatique (Harmonia axyridis).
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harmonia axyridis, comme d'autres coccinelles, utilise l'isopropyl-méthoxypyrazine (en) comme produit chimique défensif pour décourager la prédation, et transporte également ce produit chimique dans son hémolymphe à des concentrations beaucoup plus élevées que de nombreuses autres espèces de coccinelles, ainsi que des composés défensifs spécifiques à l'espèce ou au genre, comme l'harmonine. Ces insectes se mettent à saigner par réflexe lorsqu'ils sont agités, en libérant de l'hémolymphe par leurs pattes. Le liquide a une odeur fétide (semblable à celle des feuilles mortes), un goût amer et peut tacher les matériaux poreux[1],[2]. 
-L'harmonine est ainsi contenue dans l'hémolymphe des insectes qui l'aident à repousser ses prédateurs, mais aussi de protéger la coccinelle asiatique de parasite, son goût nauséabond la rend peu appétissante pour les oiseaux et autres prédateurs[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harmonia axyridis, comme d'autres coccinelles, utilise l'isopropyl-méthoxypyrazine (en) comme produit chimique défensif pour décourager la prédation, et transporte également ce produit chimique dans son hémolymphe à des concentrations beaucoup plus élevées que de nombreuses autres espèces de coccinelles, ainsi que des composés défensifs spécifiques à l'espèce ou au genre, comme l'harmonine. Ces insectes se mettent à saigner par réflexe lorsqu'ils sont agités, en libérant de l'hémolymphe par leurs pattes. Le liquide a une odeur fétide (semblable à celle des feuilles mortes), un goût amer et peut tacher les matériaux poreux,. 
+L'harmonine est ainsi contenue dans l'hémolymphe des insectes qui l'aident à repousser ses prédateurs, mais aussi de protéger la coccinelle asiatique de parasite, son goût nauséabond la rend peu appétissante pour les oiseaux et autres prédateurs. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Médicaments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'harmonine est active contre les agents pathogènes responsables du paludisme et de la tuberculose. Plusieurs membres de l'université Justus Liebig en Allemagne travaillent à la création de médicaments à base d'harmonine capables de prévenir ou de combattre ces maladies[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'harmonine est active contre les agents pathogènes responsables du paludisme et de la tuberculose. Plusieurs membres de l'université Justus Liebig en Allemagne travaillent à la création de médicaments à base d'harmonine capables de prévenir ou de combattre ces maladies.
 </t>
         </is>
       </c>
